--- a/PythonCharts_Jupyter_Notebook/Output/PythonCharts.xlsx
+++ b/PythonCharts_Jupyter_Notebook/Output/PythonCharts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\PythonChartsExcel\Output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bananatree\Desktop\python-charts-in-excel\PythonCharts_Jupyter_Notebook\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DACF69FE-8CEE-4D61-9188-EF595D8F26F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A61C47-A225-4E13-A89B-B9E2030B9123}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="48075" yWindow="0" windowWidth="9555" windowHeight="12360" xr2:uid="{04CFB6A5-D3C8-4394-9707-8B323B924FB0}"/>
+    <workbookView xWindow="7164" yWindow="2640" windowWidth="9636" windowHeight="8292" xr2:uid="{D41868E3-94C5-47E4-AA37-B5B26AC3A214}"/>
   </bookViews>
   <sheets>
     <sheet name="Python Charts" sheetId="1" r:id="rId1"/>
@@ -115,15 +115,15 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15875</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="3" name="Matplotlib">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C44692FC-5B45-4B2E-A7D4-0A4087C26157}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D896DEA-2F1F-4DC0-8E3C-BFF0DB94496E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -160,20 +160,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>27305</xdr:rowOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="5" name="Pandas">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE283B12-EEE2-47A0-8C51-1C22B6DEB3FD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4903FF9E-FA1B-4BC2-8977-200441656466}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -210,20 +210,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>51435</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>57785</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="7" name="Seaborn1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B291D8F2-A208-4A18-9FE7-58F9B2754A00}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{132254D2-61F1-458F-8499-75D4EBC5A0FD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,20 +260,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>50</xdr:row>
-      <xdr:rowOff>78105</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>88265</xdr:rowOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="9" name="Seaborn2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4630032C-D6D4-4C00-A18E-AE694954A506}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCA478BA-6D41-40DE-A1E0-C650D97FA485}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -310,20 +310,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>67</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="11" name="Plotly1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3100E6B5-E676-4ABF-8A32-27A5B418CC48}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7EFE786-9EA6-4E31-AAC3-892196F14293}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -360,20 +360,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>82</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>135890</xdr:rowOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="13" name="Plotly2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E80324A-7723-44DC-AC7F-9F36F8DBBBAD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BCA3744-8413-4BE1-9B2E-122F20FD5828}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -410,20 +410,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>99</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>166370</xdr:rowOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="15" name="mplfinance_candle">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AEE40C6-56FB-4476-9849-68545A76BA85}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C824E847-F8CC-4B0C-8168-81B9EB0DFE38}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -459,21 +459,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>115</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>13970</xdr:rowOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>162560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="17" name="mplfinance_line">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D01315-115A-4D42-B311-E06E184C8053}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F943F21-46D1-4C5F-A85C-A5968F999569}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -804,10 +804,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42329C56-5B57-43E2-9A33-C5E43A380BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D18B417C-B4B8-47FA-A86C-49512401D1AA}">
   <dimension ref="A2:A99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
